--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC6F9F-DD99-406E-AC0E-F89BBF6691B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B69F1-595A-443B-B119-80BE87C11FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,20 +1807,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
     <col min="13" max="13" width="7.25" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
     <col min="15" max="16" width="8.375" customWidth="1"/>
     <col min="17" max="17" width="12.75" customWidth="1"/>
     <col min="18" max="18" width="8.375" customWidth="1"/>

--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B69F1-595A-443B-B119-80BE87C11FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CBB94-8308-41E9-8CC5-5CAB5584C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>渠道</t>
   </si>
   <si>
-    <t>美森正班海派</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -962,6 +959,10 @@
   </si>
   <si>
     <t>{{t.clearance.customs_clearance_price*t.quantityInBox*t.boxCount}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国洛杉矶海卡</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1369,6 +1370,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,9 +1418,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1398,33 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1802,7 +1803,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,70 +1830,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1915,342 +1916,342 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="44"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
+      <c r="O6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="H7" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
+      <c r="O8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="37">
+        <v>61406640022</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="50">
-        <v>61406640022</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
+      <c r="O9" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="M12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="N12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="O12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="S12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="T12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="U12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="23" t="s">
+      <c r="V12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="W12" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="W12" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="Y12" s="27"/>
       <c r="Z12" s="28"/>
     </row>
     <row r="13" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2279,55 +2280,55 @@
     </row>
     <row r="14" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="C14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>61</v>
-      </c>
       <c r="K14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
@@ -2336,7 +2337,7 @@
     </row>
     <row r="15" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
@@ -2563,28 +2564,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:W2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:W4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:W8"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="O9:W9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:W10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:W2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:W4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>

--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CBB94-8308-41E9-8CC5-5CAB5584C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF6157-2224-4267-86D7-8798FA797A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,10 +946,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{t.product.spec_info.cg_product_net_weight/1000}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{#each mergedBoxItems as t}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -963,6 +959,10 @@
   </si>
   <si>
     <t>美国洛杉矶海卡</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{t.product.spec_info.cg_product_net_weight/(t.product.spec_info.cg_product_net_weight_unit === 'g' ? 1 : 1000)}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1803,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="50"/>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="13" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2289,7 +2289,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>50</v>
@@ -2318,10 +2318,10 @@
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="34" t="s">
         <v>65</v>

--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF6157-2224-4267-86D7-8798FA797A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E218EABE-D60C-4F11-9B34-AB33404C8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{t.product.spec_info.cg_product_net_weight/(t.product.spec_info.cg_product_net_weight_unit === 'g' ? 1 : 1000)}}</t>
+    <t>{{ helpers.convertToKg(t.product.spec_info.cg_product_net_weight, t.product.spec_info.cg_product_net_weight_unit) }}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1370,12 +1370,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,45 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1803,7 +1803,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1830,70 +1830,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1918,9 +1918,9 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1930,127 +1930,127 @@
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="53"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2058,36 +2058,36 @@
       <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2095,86 +2095,86 @@
       <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="50">
         <v>61406640022</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
@@ -2564,28 +2564,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="O9:W9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="O6:W6"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:W2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:W4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="B11:W11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="O9:W9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:W10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>

--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E218EABE-D60C-4F11-9B34-AB33404C8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CB84F-D861-429C-ABCA-76E7D191847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     </r>
   </si>
   <si>
-    <t>Arnold Pinter</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -878,26 +875,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{shipment.nation}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{shipment.address1}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{shipment.city}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{shipment.postalCode}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{shipment.province}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{shipment.warehouseId}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -963,6 +940,30 @@
   </si>
   <si>
     <t>{{ helpers.convertToKg(t.product.spec_info.cg_product_net_weight, t.product.spec_info.cg_product_net_weight_unit) }}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{shipment.address.address1}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{shipment.address.city}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{shipment.address.stateOrProvinceCode}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{shipment.address.postalCode}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnold Pinter</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{shipment.address.countryCode}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1370,6 +1371,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,9 +1419,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1399,33 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1803,7 +1804,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,7 +1814,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
@@ -1830,70 +1831,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1918,340 +1919,340 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="44"/>
+      <c r="H4" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
+      <c r="O6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="H7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
+      <c r="O8" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="37">
+        <v>61406640022</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="50">
-        <v>61406640022</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
+      <c r="O9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="M12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="N12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="O12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="S12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="T12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="U12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="23" t="s">
+      <c r="V12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="W12" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="W12" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="Y12" s="27"/>
       <c r="Z12" s="28"/>
     </row>
     <row r="13" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2280,55 +2281,55 @@
     </row>
     <row r="14" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="J14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
@@ -2337,7 +2338,7 @@
     </row>
     <row r="15" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
@@ -2564,28 +2565,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:W2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:W4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:W8"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="O9:W9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:W10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:W2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:W4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>

--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CB84F-D861-429C-ABCA-76E7D191847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F83C37-4410-4D93-B05A-6703CD4ED1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,10 +943,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>{{shipment.address.address1}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{{shipment.address.city}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -964,6 +960,10 @@
   </si>
   <si>
     <t>{{shipment.address.countryCode}}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{shipment.address.addressLine1}}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1371,12 +1371,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,45 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1804,7 +1804,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="H7" sqref="H7:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,70 +1831,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1919,9 +1919,9 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1931,127 +1931,127 @@
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="53"/>
+      <c r="H4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="H6" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
+      <c r="O6" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
+      <c r="H7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2059,36 +2059,36 @@
       <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="O8" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
@@ -2096,86 +2096,86 @@
       <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="50">
         <v>61406640022</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
@@ -2565,28 +2565,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="O9:W9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="O6:W6"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:W2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:W4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="B11:W11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="O9:W9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:W10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>

--- a/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
+++ b/docs/tampermonkey/云冠 发票 - 渠道 - 合并箱子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\代码\hth123321\docs\tampermonkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F83C37-4410-4D93-B05A-6703CD4ED1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF71950-E8D8-4354-BF35-AFFC201F585E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1371,6 +1371,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,9 +1419,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1400,33 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1831,70 +1831,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1919,9 +1919,9 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1931,127 +1931,127 @@
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="44"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2059,36 +2059,36 @@
       <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
@@ -2096,86 +2096,86 @@
       <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="37">
         <v>61406640022</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
@@ -2565,28 +2565,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:W2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:W4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:W8"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="O9:W9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:W10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:W2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:W4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
